--- a/nearby_places.xlsx
+++ b/nearby_places.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>17-18 Valentine St</t>
+          <t>Street 12B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Haymarket</t>
+          <t>Oud Metha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ChIJT0VWCSSuEmsRSfRHUqBPa80</t>
+          <t>ChIJKQMXRstCXz4RtYQyDe5fe8c</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,72 +490,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>It's Time For Thai</t>
+          <t>مطعم درج الياسمين Daraj Al Yasmin Restaurant &amp; Cafe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>767–769 George Street, Haymarket</t>
+          <t>18th Street - Dubai</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ChIJUYmgCSSuEmsREh0wG5hVCQk</t>
+          <t>ChIJw25zQMtCXz4RC_YB-guCquI</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>meal_takeaway, restaurant, food, point_of_interest, establishment</t>
+          <t>restaurant, food, point_of_interest, establishment</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Valentine on George PTY Ltd.</t>
+          <t>DARAJ ALYASMIN GOURMET درج الياسمين غورمية</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21 Valentine Street, Haymarket</t>
+          <t>7 25 St - Dubai</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ChIJh6aoCSSuEmsRyWIuaN-ozOU</t>
+          <t>ChIJZ7bUHDBDXz4RfpJlcsM3mks</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>lodging, point_of_interest, establishment</t>
+          <t>supermarket, grocery_or_supermarket, food, point_of_interest, store, establishment</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DK GAMES TCG &amp; HOBBY 卡牌谷子店</t>
+          <t>BRIDON MIDDLE EAST FZE (Bridon-Bekaert The Ropes Group)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>775 George Street, Haymarket</t>
+          <t>Metha Plaza Building - 314, Tower B - دبي</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ChIJSTRFr6GvEmsRlzp-vORUScg</t>
+          <t>ChIJtewq2K5DXz4RvX2Erh_Cw8c</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>store, point_of_interest, establishment</t>
+          <t>point_of_interest, establishment</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -567,154 +567,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Teddy Tea Break</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>775 George Street, Haymarket</t>
+          <t>Dubai</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ChIJm6YP-COuEmsRgCmr1ao7_vg</t>
+          <t>ChIJRcbZaklDXz4RYlEphFBu5r0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>point_of_interest, establishment</t>
+          <t>locality, political</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>PROJEXIS</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Level 4/793/795 George Street, Haymarket</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ChIJE1m-CSSuEmsRIKHi6xiFOuM</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>point_of_interest, establishment</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Blank Gallery</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2F/17 Valentine Street, Haymarket</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ChIJ6SCb-ZCvEmsR3J-PcQ3V0NI</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>art_gallery, point_of_interest, establishment</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MAILLOT</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>17 Valentine Street, Haymarket</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ChIJPcYm2zqvEmsRyM92UzCjnMA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>clothing_store, store, point_of_interest, establishment</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Outta Coffee</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Ground floor/17 Valentine Street, Haymarket</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ChIJKWhfaaqvEmsRvYuUZHr08Hw</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>food, store, point_of_interest, establishment</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ChIJP3Sa8ziYEmsRUKgyFmh9AQM</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>colloquial_area, locality, political</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
